--- a/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
+++ b/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Library/Mobile Documents/com~apple~CloudDocs/Dev/data/msc/dissertation/iifo_data/lit_search_4/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C836000-D268-0A47-AA8B-41DF37C19665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5C511B-21E6-AF49-9AFE-81ED68AB8641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20540" yWindow="880" windowWidth="20580" windowHeight="12220" xr2:uid="{75954437-E4AF-7C43-AD2A-639C66837574}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3205" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3391" uniqueCount="423">
   <si>
     <t>Study_ID</t>
   </si>
@@ -1230,6 +1230,78 @@
   </si>
   <si>
     <t>"During her hospital stay, she was diagnosed with separation anxiety and was started on mirtazapine"</t>
+  </si>
+  <si>
+    <t>"history of melancholic depressive syndrome and iterative self-harm"</t>
+  </si>
+  <si>
+    <t>"3 toothbrushes, 3 garbage bags, 2 knives, 2 forks, 3 tweezers, 2 batteries and 8 pens from her stomach and esophagus"</t>
+  </si>
+  <si>
+    <t>"Pharyngeal perforation" and "Retro-esophageal foreign body (Fig. 2A) that had entirely crossed the posterior pharyngeal wall, accounting for it not being seen on initial endoscopy"</t>
+  </si>
+  <si>
+    <t>475-001</t>
+  </si>
+  <si>
+    <t>476-001</t>
+  </si>
+  <si>
+    <t>"a bunch of metal screws"</t>
+  </si>
+  <si>
+    <t>"escaped from the surgical ward without completing the follow-up and treatment course"</t>
+  </si>
+  <si>
+    <t>"Psychiatric consultant did not consider an inpatient follow-up for the patient"</t>
+  </si>
+  <si>
+    <t>482-001</t>
+  </si>
+  <si>
+    <t>"gradually swallowing small metal objects such as screws, nuts, plaques, and stones for the past 3  months, which had not caused any serious problems for the patient until now.", "A total of 452 screws, nails, nuts, keys, stones, and other metal pieces weighing two kilograms and nine hundred grams were extracted from the stomach"</t>
+  </si>
+  <si>
+    <t>"Following surgery, the patient was transferred to the intensive care unit (ICU)"</t>
+  </si>
+  <si>
+    <t>"a psychiatric consultation was conducted, resulting in a diagnosis of psychosis", "suspected psychiatric problems (unconfirmed)", "The patient had no history of surgery. He did not take any special medication, but he was strongly addicted to opium."</t>
+  </si>
+  <si>
+    <t>483-001</t>
+  </si>
+  <si>
+    <t>"The patient had a history of self-harm, with multiple previous endoscopies, 17 laparotomies for foreign body removals and even a prior thoracotomy for a butter knife extraction."</t>
+  </si>
+  <si>
+    <t>484-001</t>
+  </si>
+  <si>
+    <t>"6 dominoes"</t>
+  </si>
+  <si>
+    <t>"kitchen knife"</t>
+  </si>
+  <si>
+    <t>"Transoral flexible and rigid endoscopic retrieval was attempted by a senior head and neck consultant. Unfortunately, it was unsuccessful because of the knife’slow and firmly lodged position, which made it difficult to reach the object transorally, and there was the risk of perforation upon retrieval. Moreover, smooth outlining of the object made it difficult to use graspers, snares or endoscopic forceps. Thus, the team opted for an external approach via a lateral neck oesophagotomy, to avoid an open laparotomy and gastrotomy or even a further thoracotomy."</t>
+  </si>
+  <si>
+    <t>"The patient presented a good clinical evolution, maintaining suicidal ideas and with a high risk of escape, so contacted her psychiatric center where she was referred on the third postoperative day"</t>
+  </si>
+  <si>
+    <t>"maintaining suicidal ideas and with a high risk of escape", "Borderline personality disorder", "on six occasions in different hospitals, in all cases laparotomy was performed to resolve the condition [extraction of various foreign bodies of different kinds; chains, clips, batteries, plastic objects...], beginning his surgical journey in 2018. Apart from the six previous occasions in which she has required surgery, five successful endoscopic extractions have also been performed during this period"</t>
+  </si>
+  <si>
+    <t>"Mild localized injury of the mucosa was noted directly underlying the object (Figure 2). The rest of the esophagus, stomach, and duodenum had no abnormalities. He was able to resume oral intake that evening without any complications."</t>
+  </si>
+  <si>
+    <t>"Four days after the unwitnessed ingestion of “two magnets,” thought to have been consumed for secondary gain.", "20 mm button battery was identified in the upper esophagus at the level of the cricopharyngeus and was removed with a Roth net""</t>
+  </si>
+  <si>
+    <t>"no significant past medical history presented t", "thought to have been consumed for secondary gain."</t>
+  </si>
+  <si>
+    <t>485-001</t>
   </si>
 </sst>
 </file>
@@ -2099,11 +2171,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF37846A-8CBF-AA40-A2E7-D02F4D03EEE3}">
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J106" sqref="J106"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z110" sqref="Z110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12537,6 +12609,612 @@
         <v>397</v>
       </c>
     </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>475</v>
+      </c>
+      <c r="B105" t="s">
+        <v>402</v>
+      </c>
+      <c r="C105">
+        <v>25</v>
+      </c>
+      <c r="D105" t="s">
+        <v>31</v>
+      </c>
+      <c r="E105" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" t="s">
+        <v>21</v>
+      </c>
+      <c r="J105" t="s">
+        <v>20</v>
+      </c>
+      <c r="K105" t="s">
+        <v>20</v>
+      </c>
+      <c r="L105" t="s">
+        <v>19</v>
+      </c>
+      <c r="M105" t="s">
+        <v>19</v>
+      </c>
+      <c r="N105" t="s">
+        <v>19</v>
+      </c>
+      <c r="O105" t="s">
+        <v>19</v>
+      </c>
+      <c r="P105" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>20</v>
+      </c>
+      <c r="R105" t="s">
+        <v>399</v>
+      </c>
+      <c r="S105" t="s">
+        <v>20</v>
+      </c>
+      <c r="T105" t="s">
+        <v>20</v>
+      </c>
+      <c r="U105" t="s">
+        <v>21</v>
+      </c>
+      <c r="V105" t="s">
+        <v>21</v>
+      </c>
+      <c r="W105" t="s">
+        <v>21</v>
+      </c>
+      <c r="X105" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF105" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG105" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>476</v>
+      </c>
+      <c r="B106" t="s">
+        <v>403</v>
+      </c>
+      <c r="C106">
+        <v>23</v>
+      </c>
+      <c r="D106" t="s">
+        <v>27</v>
+      </c>
+      <c r="E106" t="s">
+        <v>20</v>
+      </c>
+      <c r="F106" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" t="s">
+        <v>20</v>
+      </c>
+      <c r="J106" t="s">
+        <v>20</v>
+      </c>
+      <c r="K106" t="s">
+        <v>21</v>
+      </c>
+      <c r="L106" t="s">
+        <v>19</v>
+      </c>
+      <c r="M106" t="s">
+        <v>19</v>
+      </c>
+      <c r="N106" t="s">
+        <v>19</v>
+      </c>
+      <c r="O106" t="s">
+        <v>19</v>
+      </c>
+      <c r="P106" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>20</v>
+      </c>
+      <c r="R106" t="s">
+        <v>406</v>
+      </c>
+      <c r="S106" t="s">
+        <v>20</v>
+      </c>
+      <c r="T106" t="s">
+        <v>20</v>
+      </c>
+      <c r="U106" t="s">
+        <v>20</v>
+      </c>
+      <c r="V106" t="s">
+        <v>20</v>
+      </c>
+      <c r="W106" t="s">
+        <v>21</v>
+      </c>
+      <c r="X106" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC106" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD106" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF106" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG106" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>482</v>
+      </c>
+      <c r="B107" t="s">
+        <v>407</v>
+      </c>
+      <c r="C107">
+        <v>36</v>
+      </c>
+      <c r="D107" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" t="s">
+        <v>21</v>
+      </c>
+      <c r="J107" t="s">
+        <v>20</v>
+      </c>
+      <c r="K107" t="s">
+        <v>20</v>
+      </c>
+      <c r="L107" t="s">
+        <v>19</v>
+      </c>
+      <c r="M107" t="s">
+        <v>19</v>
+      </c>
+      <c r="N107" t="s">
+        <v>21</v>
+      </c>
+      <c r="O107" t="s">
+        <v>20</v>
+      </c>
+      <c r="P107" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>20</v>
+      </c>
+      <c r="R107" t="s">
+        <v>410</v>
+      </c>
+      <c r="S107" t="s">
+        <v>20</v>
+      </c>
+      <c r="T107" t="s">
+        <v>20</v>
+      </c>
+      <c r="U107" t="s">
+        <v>20</v>
+      </c>
+      <c r="V107" t="s">
+        <v>20</v>
+      </c>
+      <c r="W107" t="s">
+        <v>21</v>
+      </c>
+      <c r="X107" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC107" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD107" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE107" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF107" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG107" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>483</v>
+      </c>
+      <c r="B108" t="s">
+        <v>411</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="D108" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108" t="s">
+        <v>19</v>
+      </c>
+      <c r="I108" t="s">
+        <v>19</v>
+      </c>
+      <c r="J108" t="s">
+        <v>19</v>
+      </c>
+      <c r="K108" t="s">
+        <v>21</v>
+      </c>
+      <c r="L108" t="s">
+        <v>19</v>
+      </c>
+      <c r="M108" t="s">
+        <v>19</v>
+      </c>
+      <c r="N108" t="s">
+        <v>19</v>
+      </c>
+      <c r="O108" t="s">
+        <v>19</v>
+      </c>
+      <c r="P108" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>20</v>
+      </c>
+      <c r="R108" t="s">
+        <v>412</v>
+      </c>
+      <c r="S108" t="s">
+        <v>20</v>
+      </c>
+      <c r="T108" t="s">
+        <v>20</v>
+      </c>
+      <c r="U108" t="s">
+        <v>21</v>
+      </c>
+      <c r="V108" t="s">
+        <v>21</v>
+      </c>
+      <c r="W108" t="s">
+        <v>20</v>
+      </c>
+      <c r="X108" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD108" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF108" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG108" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>484</v>
+      </c>
+      <c r="B109" t="s">
+        <v>413</v>
+      </c>
+      <c r="C109">
+        <v>29</v>
+      </c>
+      <c r="D109" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" t="s">
+        <v>21</v>
+      </c>
+      <c r="J109" t="s">
+        <v>20</v>
+      </c>
+      <c r="K109" t="s">
+        <v>21</v>
+      </c>
+      <c r="L109" t="s">
+        <v>21</v>
+      </c>
+      <c r="M109" t="s">
+        <v>20</v>
+      </c>
+      <c r="N109" t="s">
+        <v>20</v>
+      </c>
+      <c r="O109" t="s">
+        <v>20</v>
+      </c>
+      <c r="P109" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>20</v>
+      </c>
+      <c r="R109" t="s">
+        <v>418</v>
+      </c>
+      <c r="S109" t="s">
+        <v>20</v>
+      </c>
+      <c r="T109" t="s">
+        <v>20</v>
+      </c>
+      <c r="U109" t="s">
+        <v>20</v>
+      </c>
+      <c r="V109" t="s">
+        <v>21</v>
+      </c>
+      <c r="W109" t="s">
+        <v>20</v>
+      </c>
+      <c r="X109" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF109" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG109" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>485</v>
+      </c>
+      <c r="B110" t="s">
+        <v>422</v>
+      </c>
+      <c r="C110">
+        <v>45</v>
+      </c>
+      <c r="D110" t="s">
+        <v>27</v>
+      </c>
+      <c r="E110" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110" t="s">
+        <v>20</v>
+      </c>
+      <c r="J110" t="s">
+        <v>20</v>
+      </c>
+      <c r="K110" t="s">
+        <v>20</v>
+      </c>
+      <c r="L110" t="s">
+        <v>20</v>
+      </c>
+      <c r="M110" t="s">
+        <v>21</v>
+      </c>
+      <c r="N110" t="s">
+        <v>20</v>
+      </c>
+      <c r="O110" t="s">
+        <v>20</v>
+      </c>
+      <c r="P110" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>20</v>
+      </c>
+      <c r="R110" t="s">
+        <v>421</v>
+      </c>
+      <c r="S110" t="s">
+        <v>21</v>
+      </c>
+      <c r="T110" t="s">
+        <v>21</v>
+      </c>
+      <c r="U110" t="s">
+        <v>20</v>
+      </c>
+      <c r="V110" t="s">
+        <v>20</v>
+      </c>
+      <c r="W110" t="s">
+        <v>20</v>
+      </c>
+      <c r="X110" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>420</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF110" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG110" t="s">
+        <v>419</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
+++ b/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Library/Mobile Documents/com~apple~CloudDocs/Dev/data/msc/dissertation/iifo_data/lit_search_4/input/raw_data/data_extraction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5C511B-21E6-AF49-9AFE-81ED68AB8641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{223AB0F5-CC98-3A4D-88E5-62BC8261968D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20540" yWindow="880" windowWidth="20580" windowHeight="12220" xr2:uid="{75954437-E4AF-7C43-AD2A-639C66837574}"/>
+    <workbookView xWindow="19520" yWindow="880" windowWidth="20580" windowHeight="12220" xr2:uid="{75954437-E4AF-7C43-AD2A-639C66837574}"/>
   </bookViews>
   <sheets>
     <sheet name="case_report_data_extraction" sheetId="1" r:id="rId1"/>
@@ -2174,8 +2174,8 @@
   <dimension ref="A1:AH110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z110" sqref="Z110"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
+++ b/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{223AB0F5-CC98-3A4D-88E5-62BC8261968D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C6825F-9721-AE44-963D-444C52478C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19520" yWindow="880" windowWidth="20580" windowHeight="12220" xr2:uid="{75954437-E4AF-7C43-AD2A-639C66837574}"/>
+    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="12200" xr2:uid="{75954437-E4AF-7C43-AD2A-639C66837574}"/>
   </bookViews>
   <sheets>
     <sheet name="case_report_data_extraction" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3391" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3630" uniqueCount="443">
   <si>
     <t>Study_ID</t>
   </si>
@@ -1302,6 +1302,66 @@
   </si>
   <si>
     <t>485-001</t>
+  </si>
+  <si>
+    <t>377-001</t>
+  </si>
+  <si>
+    <t>377-002</t>
+  </si>
+  <si>
+    <t>377-003</t>
+  </si>
+  <si>
+    <t>377-004</t>
+  </si>
+  <si>
+    <t>"Needle"</t>
+  </si>
+  <si>
+    <t>"metallic spoon"</t>
+  </si>
+  <si>
+    <t>"sheet metal"</t>
+  </si>
+  <si>
+    <t>"Nails"</t>
+  </si>
+  <si>
+    <t>380-001</t>
+  </si>
+  <si>
+    <t>"intention of suicide"</t>
+  </si>
+  <si>
+    <t>"ingested a knife without its handle", "sharp knife, 12 cm long in the stomach"</t>
+  </si>
+  <si>
+    <t>"fluoroscopy", "transferred to the psychiatric hospital on day three postoperative because of the high risk of suicidal ideation and poor insight"</t>
+  </si>
+  <si>
+    <t>382-001</t>
+  </si>
+  <si>
+    <t>"coins"</t>
+  </si>
+  <si>
+    <t>"button battery"</t>
+  </si>
+  <si>
+    <t>"severe ulceration."</t>
+  </si>
+  <si>
+    <t>451-001</t>
+  </si>
+  <si>
+    <t>"metallic foreign body had a length of approximately 20 cm"</t>
+  </si>
+  <si>
+    <t>"He had poor compliance with treatment for schizophrenia"</t>
+  </si>
+  <si>
+    <t>"fistula"</t>
   </si>
 </sst>
 </file>
@@ -2171,11 +2231,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF37846A-8CBF-AA40-A2E7-D02F4D03EEE3}">
-  <dimension ref="A1:AH110"/>
+  <dimension ref="A1:AH118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG103" sqref="AG103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9810,13 +9870,13 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B77" t="s">
-        <v>297</v>
+        <v>423</v>
       </c>
       <c r="C77">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D77" t="s">
         <v>27</v>
@@ -9834,13 +9894,13 @@
         <v>20</v>
       </c>
       <c r="I77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K77" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L77" t="s">
         <v>19</v>
@@ -9858,10 +9918,7 @@
         <v>21</v>
       </c>
       <c r="Q77" t="s">
-        <v>19</v>
-      </c>
-      <c r="R77" t="s">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="S77" t="s">
         <v>20</v>
@@ -9879,16 +9936,16 @@
         <v>21</v>
       </c>
       <c r="X77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y77" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="Z77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB77" t="s">
         <v>20</v>
@@ -9897,48 +9954,45 @@
         <v>21</v>
       </c>
       <c r="AD77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE77" t="s">
         <v>20</v>
       </c>
       <c r="AF77" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG77" t="s">
-        <v>300</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="B78" t="s">
-        <v>302</v>
+        <v>424</v>
       </c>
       <c r="C78">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E78" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K78" t="s">
         <v>19</v>
@@ -9961,9 +10015,6 @@
       <c r="Q78" t="s">
         <v>20</v>
       </c>
-      <c r="R78" t="s">
-        <v>303</v>
-      </c>
       <c r="S78" t="s">
         <v>20</v>
       </c>
@@ -9977,22 +10028,22 @@
         <v>21</v>
       </c>
       <c r="W78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X78" t="s">
         <v>20</v>
       </c>
       <c r="Y78" t="s">
-        <v>301</v>
+        <v>428</v>
       </c>
       <c r="Z78" t="s">
         <v>20</v>
       </c>
       <c r="AA78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC78" t="s">
         <v>21</v>
@@ -10004,45 +10055,42 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG78" t="s">
-        <v>304</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="B79" t="s">
-        <v>305</v>
+        <v>425</v>
       </c>
       <c r="C79">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D79" t="s">
         <v>27</v>
       </c>
       <c r="E79" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I79" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K79" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L79" t="s">
         <v>19</v>
@@ -10062,9 +10110,6 @@
       <c r="Q79" t="s">
         <v>20</v>
       </c>
-      <c r="R79" t="s">
-        <v>308</v>
-      </c>
       <c r="S79" t="s">
         <v>20</v>
       </c>
@@ -10072,25 +10117,25 @@
         <v>20</v>
       </c>
       <c r="U79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V79" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y79" t="s">
-        <v>306</v>
+        <v>429</v>
       </c>
       <c r="Z79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB79" t="s">
         <v>20</v>
@@ -10099,51 +10144,48 @@
         <v>21</v>
       </c>
       <c r="AD79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF79" t="s">
         <v>20</v>
-      </c>
-      <c r="AG79" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="B80" t="s">
-        <v>310</v>
+        <v>426</v>
       </c>
       <c r="C80">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
         <v>19</v>
       </c>
       <c r="I80" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K80" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L80" t="s">
         <v>19</v>
@@ -10163,9 +10205,6 @@
       <c r="Q80" t="s">
         <v>20</v>
       </c>
-      <c r="R80" t="s">
-        <v>311</v>
-      </c>
       <c r="S80" t="s">
         <v>20</v>
       </c>
@@ -10173,19 +10212,19 @@
         <v>20</v>
       </c>
       <c r="U80" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W80" t="s">
         <v>21</v>
       </c>
       <c r="X80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y80" t="s">
-        <v>309</v>
+        <v>430</v>
       </c>
       <c r="Z80" t="s">
         <v>20</v>
@@ -10200,33 +10239,30 @@
         <v>21</v>
       </c>
       <c r="AD80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF80" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG80" t="s">
-        <v>312</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="B81" t="s">
-        <v>313</v>
+        <v>431</v>
       </c>
       <c r="C81">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
         <v>31</v>
       </c>
       <c r="E81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -10247,13 +10283,13 @@
         <v>19</v>
       </c>
       <c r="L81" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M81" t="s">
         <v>20</v>
       </c>
       <c r="N81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O81" t="s">
         <v>20</v>
@@ -10265,7 +10301,7 @@
         <v>20</v>
       </c>
       <c r="R81" t="s">
-        <v>314</v>
+        <v>432</v>
       </c>
       <c r="S81" t="s">
         <v>20</v>
@@ -10283,51 +10319,51 @@
         <v>21</v>
       </c>
       <c r="X81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y81" t="s">
-        <v>316</v>
+        <v>433</v>
       </c>
       <c r="Z81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB81" t="s">
         <v>20</v>
       </c>
       <c r="AC81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF81" t="s">
         <v>21</v>
       </c>
       <c r="AG81" t="s">
-        <v>315</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="B82" t="s">
-        <v>317</v>
-      </c>
-      <c r="C82">
-        <v>36</v>
+        <v>435</v>
+      </c>
+      <c r="C82" t="s">
+        <v>19</v>
       </c>
       <c r="D82" t="s">
         <v>27</v>
       </c>
       <c r="E82" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F82" t="s">
         <v>20</v>
@@ -10339,35 +10375,32 @@
         <v>19</v>
       </c>
       <c r="I82" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L82" t="s">
         <v>19</v>
       </c>
       <c r="M82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N82" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q82" t="s">
         <v>20</v>
       </c>
-      <c r="R82" t="s">
-        <v>318</v>
-      </c>
       <c r="S82" t="s">
         <v>20</v>
       </c>
@@ -10381,13 +10414,13 @@
         <v>21</v>
       </c>
       <c r="W82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y82" t="s">
-        <v>321</v>
+        <v>436</v>
       </c>
       <c r="Z82" t="s">
         <v>21</v>
@@ -10408,30 +10441,24 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG82" t="s">
-        <v>319</v>
-      </c>
-      <c r="AH82" t="s">
-        <v>320</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="B83" t="s">
-        <v>322</v>
-      </c>
-      <c r="C83">
-        <v>35</v>
+        <v>435</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
       </c>
       <c r="D83" t="s">
         <v>27</v>
       </c>
       <c r="E83" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -10443,43 +10470,40 @@
         <v>19</v>
       </c>
       <c r="I83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q83" t="s">
-        <v>21</v>
-      </c>
-      <c r="R83" t="s">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="S83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T83" t="s">
         <v>20</v>
       </c>
       <c r="U83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V83" t="s">
         <v>21</v>
@@ -10491,7 +10515,7 @@
         <v>20</v>
       </c>
       <c r="Y83" t="s">
-        <v>323</v>
+        <v>437</v>
       </c>
       <c r="Z83" t="s">
         <v>21</v>
@@ -10503,7 +10527,7 @@
         <v>20</v>
       </c>
       <c r="AC83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD83" t="s">
         <v>20</v>
@@ -10512,21 +10536,24 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="B84" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="C84">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D84" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E84" t="s">
         <v>20</v>
@@ -10547,7 +10574,7 @@
         <v>20</v>
       </c>
       <c r="K84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L84" t="s">
         <v>19</v>
@@ -10565,10 +10592,10 @@
         <v>21</v>
       </c>
       <c r="Q84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R84" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="S84" t="s">
         <v>20</v>
@@ -10577,10 +10604,10 @@
         <v>20</v>
       </c>
       <c r="U84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W84" t="s">
         <v>21</v>
@@ -10589,13 +10616,13 @@
         <v>21</v>
       </c>
       <c r="Y84" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="Z84" t="s">
         <v>21</v>
       </c>
       <c r="AA84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB84" t="s">
         <v>20</v>
@@ -10613,63 +10640,63 @@
         <v>21</v>
       </c>
       <c r="AG84" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="B85" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="C85">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D85" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H85" t="s">
         <v>20</v>
       </c>
       <c r="I85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J85" t="s">
         <v>20</v>
       </c>
       <c r="K85" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L85" t="s">
         <v>19</v>
       </c>
       <c r="M85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N85" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q85" t="s">
         <v>20</v>
       </c>
       <c r="R85" t="s">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="S85" t="s">
         <v>20</v>
@@ -10678,63 +10705,66 @@
         <v>20</v>
       </c>
       <c r="U85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y85" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="Z85" t="s">
         <v>20</v>
       </c>
       <c r="AA85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC85" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD85" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF85" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="B86" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="C86">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D86" t="s">
         <v>27</v>
       </c>
       <c r="E86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F86" t="s">
         <v>20</v>
       </c>
       <c r="G86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H86" t="s">
         <v>20</v>
@@ -10746,28 +10776,28 @@
         <v>20</v>
       </c>
       <c r="K86" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L86" t="s">
         <v>19</v>
       </c>
       <c r="M86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N86" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q86" t="s">
         <v>20</v>
       </c>
       <c r="R86" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="S86" t="s">
         <v>20</v>
@@ -10776,25 +10806,25 @@
         <v>20</v>
       </c>
       <c r="U86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V86" t="s">
         <v>21</v>
       </c>
       <c r="W86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X86" t="s">
         <v>20</v>
       </c>
       <c r="Y86" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="Z86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB86" t="s">
         <v>20</v>
@@ -10806,42 +10836,42 @@
         <v>20</v>
       </c>
       <c r="AE86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG86" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="B87" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="C87">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F87" t="s">
         <v>20</v>
       </c>
       <c r="G87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I87" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J87" t="s">
         <v>20</v>
@@ -10868,7 +10898,7 @@
         <v>20</v>
       </c>
       <c r="R87" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="S87" t="s">
         <v>20</v>
@@ -10883,51 +10913,51 @@
         <v>21</v>
       </c>
       <c r="W87" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y87" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="Z87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB87" t="s">
         <v>20</v>
       </c>
       <c r="AC87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD87" t="s">
         <v>20</v>
       </c>
       <c r="AE87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG87" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B88" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="C88">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E88" t="s">
         <v>20</v>
@@ -10951,7 +10981,7 @@
         <v>19</v>
       </c>
       <c r="L88" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M88" t="s">
         <v>20</v>
@@ -10969,7 +10999,7 @@
         <v>20</v>
       </c>
       <c r="R88" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="S88" t="s">
         <v>20</v>
@@ -10984,25 +11014,25 @@
         <v>21</v>
       </c>
       <c r="W88" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y88" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="Z88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB88" t="s">
         <v>20</v>
       </c>
       <c r="AC88" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD88" t="s">
         <v>19</v>
@@ -11014,27 +11044,27 @@
         <v>21</v>
       </c>
       <c r="AG88" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B89" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="C89">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D89" t="s">
         <v>27</v>
       </c>
       <c r="E89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G89" t="s">
         <v>19</v>
@@ -11043,34 +11073,34 @@
         <v>19</v>
       </c>
       <c r="I89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K89" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L89" t="s">
         <v>19</v>
       </c>
       <c r="M89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N89" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q89" t="s">
         <v>20</v>
       </c>
       <c r="R89" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="S89" t="s">
         <v>20</v>
@@ -11082,60 +11112,63 @@
         <v>20</v>
       </c>
       <c r="V89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y89" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="Z89" t="s">
         <v>21</v>
       </c>
       <c r="AA89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB89" t="s">
         <v>20</v>
       </c>
       <c r="AC89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF89" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG89" t="s">
-        <v>343</v>
+        <v>319</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="B90" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="C90">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D90" t="s">
         <v>27</v>
       </c>
       <c r="E90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G90" t="s">
         <v>19</v>
@@ -11144,34 +11177,34 @@
         <v>19</v>
       </c>
       <c r="I90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J90" t="s">
         <v>20</v>
       </c>
       <c r="K90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R90" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="S90" t="s">
         <v>20</v>
@@ -11192,19 +11225,19 @@
         <v>20</v>
       </c>
       <c r="Y90" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="Z90" t="s">
         <v>21</v>
       </c>
       <c r="AA90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB90" t="s">
         <v>20</v>
       </c>
       <c r="AC90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD90" t="s">
         <v>20</v>
@@ -11213,24 +11246,21 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG90" t="s">
-        <v>351</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="B91" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="C91">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E91" t="s">
         <v>20</v>
@@ -11239,19 +11269,19 @@
         <v>20</v>
       </c>
       <c r="G91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L91" t="s">
         <v>19</v>
@@ -11272,7 +11302,7 @@
         <v>20</v>
       </c>
       <c r="R91" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="S91" t="s">
         <v>20</v>
@@ -11281,10 +11311,10 @@
         <v>20</v>
       </c>
       <c r="U91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W91" t="s">
         <v>21</v>
@@ -11293,10 +11323,10 @@
         <v>21</v>
       </c>
       <c r="Y91" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="Z91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA91" t="s">
         <v>21</v>
@@ -11305,27 +11335,30 @@
         <v>20</v>
       </c>
       <c r="AC91" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF91" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="B92" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="C92">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D92" t="s">
         <v>31</v>
@@ -11334,10 +11367,10 @@
         <v>20</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
         <v>20</v>
@@ -11352,7 +11385,7 @@
         <v>21</v>
       </c>
       <c r="L92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M92" t="s">
         <v>20</v>
@@ -11370,7 +11403,7 @@
         <v>20</v>
       </c>
       <c r="R92" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="S92" t="s">
         <v>20</v>
@@ -11379,66 +11412,63 @@
         <v>20</v>
       </c>
       <c r="U92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y92" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="Z92" t="s">
         <v>20</v>
       </c>
       <c r="AA92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB92" t="s">
         <v>20</v>
       </c>
       <c r="AC92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF92" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG92" t="s">
-        <v>359</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="B93" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="C93">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D93" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E93" t="s">
         <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H93" t="s">
         <v>20</v>
@@ -11450,10 +11480,10 @@
         <v>20</v>
       </c>
       <c r="K93" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M93" t="s">
         <v>20</v>
@@ -11471,7 +11501,7 @@
         <v>20</v>
       </c>
       <c r="R93" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="S93" t="s">
         <v>20</v>
@@ -11486,13 +11516,13 @@
         <v>21</v>
       </c>
       <c r="W93" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X93" t="s">
         <v>20</v>
       </c>
       <c r="Y93" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="Z93" t="s">
         <v>20</v>
@@ -11507,7 +11537,7 @@
         <v>21</v>
       </c>
       <c r="AD93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE93" t="s">
         <v>20</v>
@@ -11516,36 +11546,36 @@
         <v>21</v>
       </c>
       <c r="AG93" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="B94" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="C94">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D94" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
         <v>20</v>
       </c>
       <c r="I94" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J94" t="s">
         <v>20</v>
@@ -11554,25 +11584,25 @@
         <v>21</v>
       </c>
       <c r="L94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N94" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q94" t="s">
         <v>20</v>
       </c>
       <c r="R94" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="S94" t="s">
         <v>20</v>
@@ -11587,19 +11617,19 @@
         <v>21</v>
       </c>
       <c r="W94" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y94" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="Z94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB94" t="s">
         <v>20</v>
@@ -11615,26 +11645,29 @@
       </c>
       <c r="AF94" t="s">
         <v>20</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="B95" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="C95">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D95" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E95" t="s">
         <v>20</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
@@ -11652,7 +11685,7 @@
         <v>19</v>
       </c>
       <c r="L95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M95" t="s">
         <v>20</v>
@@ -11661,7 +11694,7 @@
         <v>21</v>
       </c>
       <c r="O95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P95" t="s">
         <v>20</v>
@@ -11670,7 +11703,7 @@
         <v>20</v>
       </c>
       <c r="R95" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="S95" t="s">
         <v>20</v>
@@ -11679,54 +11712,54 @@
         <v>20</v>
       </c>
       <c r="U95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W95" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y95" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="Z95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB95" t="s">
         <v>20</v>
       </c>
       <c r="AC95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG95" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>460</v>
+        <v>421</v>
       </c>
       <c r="B96" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="C96">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D96" t="s">
         <v>27</v>
@@ -11735,7 +11768,7 @@
         <v>20</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G96" t="s">
         <v>19</v>
@@ -11744,10 +11777,10 @@
         <v>19</v>
       </c>
       <c r="I96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K96" t="s">
         <v>19</v>
@@ -11765,13 +11798,13 @@
         <v>19</v>
       </c>
       <c r="P96" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q96" t="s">
         <v>20</v>
       </c>
       <c r="R96" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="S96" t="s">
         <v>20</v>
@@ -11786,45 +11819,45 @@
         <v>20</v>
       </c>
       <c r="W96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y96" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="Z96" t="s">
         <v>21</v>
       </c>
       <c r="AA96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB96" t="s">
         <v>20</v>
       </c>
       <c r="AC96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF96" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG96" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="B97" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="C97">
         <v>36</v>
@@ -11833,10 +11866,10 @@
         <v>27</v>
       </c>
       <c r="E97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G97" t="s">
         <v>19</v>
@@ -11851,7 +11884,7 @@
         <v>20</v>
       </c>
       <c r="K97" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L97" t="s">
         <v>19</v>
@@ -11872,7 +11905,7 @@
         <v>20</v>
       </c>
       <c r="R97" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="S97" t="s">
         <v>20</v>
@@ -11881,60 +11914,60 @@
         <v>20</v>
       </c>
       <c r="U97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y97" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="Z97" t="s">
         <v>21</v>
       </c>
       <c r="AA97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB97" t="s">
         <v>20</v>
       </c>
       <c r="AC97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD97" t="s">
         <v>20</v>
       </c>
       <c r="AE97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF97" t="s">
         <v>21</v>
       </c>
       <c r="AG97" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="B98" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="C98">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D98" t="s">
         <v>27</v>
       </c>
       <c r="E98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -11949,10 +11982,10 @@
         <v>21</v>
       </c>
       <c r="J98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K98" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L98" t="s">
         <v>19</v>
@@ -11973,7 +12006,7 @@
         <v>20</v>
       </c>
       <c r="R98" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="S98" t="s">
         <v>20</v>
@@ -11994,57 +12027,54 @@
         <v>21</v>
       </c>
       <c r="Y98" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="Z98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB98" t="s">
         <v>20</v>
       </c>
       <c r="AC98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE98" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF98" t="s">
         <v>20</v>
-      </c>
-      <c r="AG98" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="B99" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="C99">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D99" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F99" t="s">
         <v>20</v>
       </c>
       <c r="G99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I99" t="s">
         <v>21</v>
@@ -12056,25 +12086,25 @@
         <v>21</v>
       </c>
       <c r="L99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N99" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q99" t="s">
         <v>20</v>
       </c>
       <c r="R99" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="S99" t="s">
         <v>20</v>
@@ -12083,22 +12113,22 @@
         <v>20</v>
       </c>
       <c r="U99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W99" t="s">
         <v>21</v>
       </c>
       <c r="X99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y99" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="Z99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA99" t="s">
         <v>20</v>
@@ -12113,39 +12143,39 @@
         <v>20</v>
       </c>
       <c r="AE99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG99" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="B100" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="C100">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I100" t="s">
         <v>21</v>
@@ -12157,25 +12187,25 @@
         <v>21</v>
       </c>
       <c r="L100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N100" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q100" t="s">
         <v>20</v>
       </c>
       <c r="R100" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="S100" t="s">
         <v>20</v>
@@ -12184,10 +12214,10 @@
         <v>20</v>
       </c>
       <c r="U100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W100" t="s">
         <v>21</v>
@@ -12196,22 +12226,22 @@
         <v>20</v>
       </c>
       <c r="Y100" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="Z100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB100" t="s">
         <v>20</v>
       </c>
       <c r="AC100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE100" t="s">
         <v>20</v>
@@ -12220,33 +12250,33 @@
         <v>21</v>
       </c>
       <c r="AG100" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="B101" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="C101">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D101" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I101" t="s">
         <v>21</v>
@@ -12258,25 +12288,25 @@
         <v>21</v>
       </c>
       <c r="L101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N101" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q101" t="s">
         <v>20</v>
       </c>
       <c r="R101" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="S101" t="s">
         <v>20</v>
@@ -12285,25 +12315,25 @@
         <v>20</v>
       </c>
       <c r="U101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X101" t="s">
         <v>20</v>
       </c>
       <c r="Y101" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="Z101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB101" t="s">
         <v>20</v>
@@ -12318,27 +12348,24 @@
         <v>20</v>
       </c>
       <c r="AF101" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG101" t="s">
-        <v>386</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="B102" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="C102">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D102" t="s">
         <v>27</v>
       </c>
       <c r="E102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -12356,7 +12383,7 @@
         <v>20</v>
       </c>
       <c r="K102" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L102" t="s">
         <v>19</v>
@@ -12377,7 +12404,7 @@
         <v>20</v>
       </c>
       <c r="R102" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="S102" t="s">
         <v>20</v>
@@ -12386,7 +12413,7 @@
         <v>20</v>
       </c>
       <c r="U102" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V102" t="s">
         <v>20</v>
@@ -12398,10 +12425,10 @@
         <v>20</v>
       </c>
       <c r="Y102" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="Z102" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA102" t="s">
         <v>20</v>
@@ -12410,7 +12437,7 @@
         <v>20</v>
       </c>
       <c r="AC102" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD102" t="s">
         <v>20</v>
@@ -12419,30 +12446,30 @@
         <v>20</v>
       </c>
       <c r="AF102" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG102" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B103" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="C103">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D103" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E103" t="s">
         <v>20</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G103" t="s">
         <v>19</v>
@@ -12460,25 +12487,25 @@
         <v>19</v>
       </c>
       <c r="L103" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M103" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N103" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O103" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q103" t="s">
         <v>20</v>
       </c>
       <c r="R103" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="S103" t="s">
         <v>20</v>
@@ -12490,28 +12517,28 @@
         <v>20</v>
       </c>
       <c r="V103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y103" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="Z103" t="s">
         <v>21</v>
       </c>
       <c r="AA103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB103" t="s">
         <v>20</v>
       </c>
       <c r="AC103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD103" t="s">
         <v>20</v>
@@ -12520,24 +12547,24 @@
         <v>20</v>
       </c>
       <c r="AF103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG103" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B104" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="C104">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D104" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E104" t="s">
         <v>20</v>
@@ -12558,31 +12585,49 @@
         <v>20</v>
       </c>
       <c r="K104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L104" t="s">
         <v>19</v>
       </c>
       <c r="M104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N104" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P104" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q104" t="s">
         <v>20</v>
       </c>
       <c r="R104" t="s">
-        <v>398</v>
+        <v>368</v>
+      </c>
+      <c r="S104" t="s">
+        <v>20</v>
+      </c>
+      <c r="T104" t="s">
+        <v>20</v>
+      </c>
+      <c r="U104" t="s">
+        <v>20</v>
+      </c>
+      <c r="V104" t="s">
+        <v>20</v>
+      </c>
+      <c r="W104" t="s">
+        <v>21</v>
+      </c>
+      <c r="X104" t="s">
+        <v>21</v>
       </c>
       <c r="Y104" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="Z104" t="s">
         <v>21</v>
@@ -12594,39 +12639,39 @@
         <v>20</v>
       </c>
       <c r="AC104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD104" t="s">
         <v>20</v>
       </c>
       <c r="AE104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF104" t="s">
         <v>21</v>
       </c>
       <c r="AG104" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B105" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="C105">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D105" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E105" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G105" t="s">
         <v>19</v>
@@ -12641,7 +12686,7 @@
         <v>20</v>
       </c>
       <c r="K105" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L105" t="s">
         <v>19</v>
@@ -12662,7 +12707,7 @@
         <v>20</v>
       </c>
       <c r="R105" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="S105" t="s">
         <v>20</v>
@@ -12671,10 +12716,10 @@
         <v>20</v>
       </c>
       <c r="U105" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V105" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W105" t="s">
         <v>21</v>
@@ -12683,48 +12728,48 @@
         <v>21</v>
       </c>
       <c r="Y105" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="Z105" t="s">
         <v>21</v>
       </c>
       <c r="AA105" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB105" t="s">
         <v>20</v>
       </c>
       <c r="AC105" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD105" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE105" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF105" t="s">
         <v>21</v>
       </c>
       <c r="AG105" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B106" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="C106">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D106" t="s">
         <v>27</v>
       </c>
       <c r="E106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -12736,7 +12781,7 @@
         <v>19</v>
       </c>
       <c r="I106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J106" t="s">
         <v>20</v>
@@ -12763,7 +12808,7 @@
         <v>20</v>
       </c>
       <c r="R106" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="S106" t="s">
         <v>20</v>
@@ -12784,10 +12829,10 @@
         <v>21</v>
       </c>
       <c r="Y106" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="Z106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA106" t="s">
         <v>20</v>
@@ -12802,21 +12847,21 @@
         <v>20</v>
       </c>
       <c r="AE106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG106" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="B107" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="C107">
         <v>36</v>
@@ -12825,7 +12870,7 @@
         <v>27</v>
       </c>
       <c r="E107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F107" t="s">
         <v>20</v>
@@ -12843,7 +12888,7 @@
         <v>20</v>
       </c>
       <c r="K107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L107" t="s">
         <v>19</v>
@@ -12852,19 +12897,19 @@
         <v>19</v>
       </c>
       <c r="N107" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q107" t="s">
         <v>20</v>
       </c>
       <c r="R107" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="S107" t="s">
         <v>20</v>
@@ -12885,19 +12930,19 @@
         <v>21</v>
       </c>
       <c r="Y107" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="Z107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA107" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB107" t="s">
         <v>20</v>
       </c>
       <c r="AC107" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD107" t="s">
         <v>20</v>
@@ -12909,27 +12954,27 @@
         <v>21</v>
       </c>
       <c r="AG107" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="B108" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="C108">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G108" t="s">
         <v>19</v>
@@ -12938,10 +12983,10 @@
         <v>19</v>
       </c>
       <c r="I108" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J108" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K108" t="s">
         <v>21</v>
@@ -12965,7 +13010,7 @@
         <v>20</v>
       </c>
       <c r="R108" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="S108" t="s">
         <v>20</v>
@@ -12974,63 +13019,63 @@
         <v>20</v>
       </c>
       <c r="U108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X108" t="s">
         <v>20</v>
       </c>
       <c r="Y108" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="Z108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB108" t="s">
         <v>20</v>
       </c>
       <c r="AC108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD108" t="s">
         <v>20</v>
       </c>
       <c r="AE108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG108" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="B109" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="C109">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G109" t="s">
         <v>19</v>
@@ -13048,25 +13093,25 @@
         <v>21</v>
       </c>
       <c r="L109" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q109" t="s">
         <v>20</v>
       </c>
       <c r="R109" t="s">
-        <v>418</v>
+        <v>372</v>
       </c>
       <c r="S109" t="s">
         <v>20</v>
@@ -13078,22 +13123,22 @@
         <v>20</v>
       </c>
       <c r="V109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W109" t="s">
         <v>20</v>
       </c>
       <c r="X109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y109" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="Z109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB109" t="s">
         <v>20</v>
@@ -13111,18 +13156,18 @@
         <v>21</v>
       </c>
       <c r="AG109" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="B110" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="C110">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D110" t="s">
         <v>27</v>
@@ -13131,7 +13176,7 @@
         <v>20</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G110" t="s">
         <v>19</v>
@@ -13140,78 +13185,868 @@
         <v>19</v>
       </c>
       <c r="I110" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J110" t="s">
         <v>20</v>
       </c>
       <c r="K110" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M110" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P110" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q110" t="s">
         <v>20</v>
       </c>
       <c r="R110" t="s">
+        <v>387</v>
+      </c>
+      <c r="S110" t="s">
+        <v>20</v>
+      </c>
+      <c r="T110" t="s">
+        <v>20</v>
+      </c>
+      <c r="U110" t="s">
+        <v>20</v>
+      </c>
+      <c r="V110" t="s">
+        <v>20</v>
+      </c>
+      <c r="W110" t="s">
+        <v>20</v>
+      </c>
+      <c r="X110" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF110" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG110" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>465</v>
+      </c>
+      <c r="B111" t="s">
+        <v>393</v>
+      </c>
+      <c r="C111">
+        <v>52</v>
+      </c>
+      <c r="D111" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111" t="s">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" t="s">
+        <v>21</v>
+      </c>
+      <c r="J111" t="s">
+        <v>20</v>
+      </c>
+      <c r="K111" t="s">
+        <v>19</v>
+      </c>
+      <c r="L111" t="s">
+        <v>19</v>
+      </c>
+      <c r="M111" t="s">
+        <v>19</v>
+      </c>
+      <c r="N111" t="s">
+        <v>19</v>
+      </c>
+      <c r="O111" t="s">
+        <v>19</v>
+      </c>
+      <c r="P111" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>20</v>
+      </c>
+      <c r="R111" t="s">
+        <v>392</v>
+      </c>
+      <c r="S111" t="s">
+        <v>20</v>
+      </c>
+      <c r="T111" t="s">
+        <v>20</v>
+      </c>
+      <c r="U111" t="s">
+        <v>20</v>
+      </c>
+      <c r="V111" t="s">
+        <v>21</v>
+      </c>
+      <c r="W111" t="s">
+        <v>20</v>
+      </c>
+      <c r="X111" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF111" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG111" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>471</v>
+      </c>
+      <c r="B112" t="s">
+        <v>395</v>
+      </c>
+      <c r="C112">
+        <v>58</v>
+      </c>
+      <c r="D112" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112" t="s">
+        <v>20</v>
+      </c>
+      <c r="F112" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" t="s">
+        <v>21</v>
+      </c>
+      <c r="J112" t="s">
+        <v>20</v>
+      </c>
+      <c r="K112" t="s">
+        <v>20</v>
+      </c>
+      <c r="L112" t="s">
+        <v>19</v>
+      </c>
+      <c r="M112" t="s">
+        <v>20</v>
+      </c>
+      <c r="N112" t="s">
+        <v>21</v>
+      </c>
+      <c r="O112" t="s">
+        <v>20</v>
+      </c>
+      <c r="P112" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>20</v>
+      </c>
+      <c r="R112" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF112" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG112" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>475</v>
+      </c>
+      <c r="B113" t="s">
+        <v>402</v>
+      </c>
+      <c r="C113">
+        <v>25</v>
+      </c>
+      <c r="D113" t="s">
+        <v>31</v>
+      </c>
+      <c r="E113" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" t="s">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" t="s">
+        <v>21</v>
+      </c>
+      <c r="J113" t="s">
+        <v>20</v>
+      </c>
+      <c r="K113" t="s">
+        <v>20</v>
+      </c>
+      <c r="L113" t="s">
+        <v>19</v>
+      </c>
+      <c r="M113" t="s">
+        <v>19</v>
+      </c>
+      <c r="N113" t="s">
+        <v>19</v>
+      </c>
+      <c r="O113" t="s">
+        <v>19</v>
+      </c>
+      <c r="P113" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>20</v>
+      </c>
+      <c r="R113" t="s">
+        <v>399</v>
+      </c>
+      <c r="S113" t="s">
+        <v>20</v>
+      </c>
+      <c r="T113" t="s">
+        <v>20</v>
+      </c>
+      <c r="U113" t="s">
+        <v>21</v>
+      </c>
+      <c r="V113" t="s">
+        <v>21</v>
+      </c>
+      <c r="W113" t="s">
+        <v>21</v>
+      </c>
+      <c r="X113" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF113" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG113" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>476</v>
+      </c>
+      <c r="B114" t="s">
+        <v>403</v>
+      </c>
+      <c r="C114">
+        <v>23</v>
+      </c>
+      <c r="D114" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114" t="s">
+        <v>19</v>
+      </c>
+      <c r="H114" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114" t="s">
+        <v>20</v>
+      </c>
+      <c r="J114" t="s">
+        <v>20</v>
+      </c>
+      <c r="K114" t="s">
+        <v>21</v>
+      </c>
+      <c r="L114" t="s">
+        <v>19</v>
+      </c>
+      <c r="M114" t="s">
+        <v>19</v>
+      </c>
+      <c r="N114" t="s">
+        <v>19</v>
+      </c>
+      <c r="O114" t="s">
+        <v>19</v>
+      </c>
+      <c r="P114" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>20</v>
+      </c>
+      <c r="R114" t="s">
+        <v>406</v>
+      </c>
+      <c r="S114" t="s">
+        <v>20</v>
+      </c>
+      <c r="T114" t="s">
+        <v>20</v>
+      </c>
+      <c r="U114" t="s">
+        <v>20</v>
+      </c>
+      <c r="V114" t="s">
+        <v>20</v>
+      </c>
+      <c r="W114" t="s">
+        <v>21</v>
+      </c>
+      <c r="X114" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD114" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE114" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF114" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG114" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>482</v>
+      </c>
+      <c r="B115" t="s">
+        <v>407</v>
+      </c>
+      <c r="C115">
+        <v>36</v>
+      </c>
+      <c r="D115" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" t="s">
+        <v>20</v>
+      </c>
+      <c r="F115" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" t="s">
+        <v>19</v>
+      </c>
+      <c r="I115" t="s">
+        <v>21</v>
+      </c>
+      <c r="J115" t="s">
+        <v>20</v>
+      </c>
+      <c r="K115" t="s">
+        <v>20</v>
+      </c>
+      <c r="L115" t="s">
+        <v>19</v>
+      </c>
+      <c r="M115" t="s">
+        <v>19</v>
+      </c>
+      <c r="N115" t="s">
+        <v>21</v>
+      </c>
+      <c r="O115" t="s">
+        <v>20</v>
+      </c>
+      <c r="P115" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>20</v>
+      </c>
+      <c r="R115" t="s">
+        <v>410</v>
+      </c>
+      <c r="S115" t="s">
+        <v>20</v>
+      </c>
+      <c r="T115" t="s">
+        <v>20</v>
+      </c>
+      <c r="U115" t="s">
+        <v>20</v>
+      </c>
+      <c r="V115" t="s">
+        <v>20</v>
+      </c>
+      <c r="W115" t="s">
+        <v>21</v>
+      </c>
+      <c r="X115" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD115" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE115" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF115" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG115" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>483</v>
+      </c>
+      <c r="B116" t="s">
+        <v>411</v>
+      </c>
+      <c r="C116">
+        <v>20</v>
+      </c>
+      <c r="D116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" t="s">
+        <v>20</v>
+      </c>
+      <c r="F116" t="s">
+        <v>19</v>
+      </c>
+      <c r="G116" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" t="s">
+        <v>19</v>
+      </c>
+      <c r="J116" t="s">
+        <v>19</v>
+      </c>
+      <c r="K116" t="s">
+        <v>21</v>
+      </c>
+      <c r="L116" t="s">
+        <v>19</v>
+      </c>
+      <c r="M116" t="s">
+        <v>19</v>
+      </c>
+      <c r="N116" t="s">
+        <v>19</v>
+      </c>
+      <c r="O116" t="s">
+        <v>19</v>
+      </c>
+      <c r="P116" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>20</v>
+      </c>
+      <c r="R116" t="s">
+        <v>412</v>
+      </c>
+      <c r="S116" t="s">
+        <v>20</v>
+      </c>
+      <c r="T116" t="s">
+        <v>20</v>
+      </c>
+      <c r="U116" t="s">
+        <v>21</v>
+      </c>
+      <c r="V116" t="s">
+        <v>21</v>
+      </c>
+      <c r="W116" t="s">
+        <v>20</v>
+      </c>
+      <c r="X116" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC116" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD116" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE116" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF116" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG116" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>484</v>
+      </c>
+      <c r="B117" t="s">
+        <v>413</v>
+      </c>
+      <c r="C117">
+        <v>29</v>
+      </c>
+      <c r="D117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" t="s">
+        <v>20</v>
+      </c>
+      <c r="F117" t="s">
+        <v>21</v>
+      </c>
+      <c r="G117" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" t="s">
+        <v>21</v>
+      </c>
+      <c r="J117" t="s">
+        <v>20</v>
+      </c>
+      <c r="K117" t="s">
+        <v>21</v>
+      </c>
+      <c r="L117" t="s">
+        <v>21</v>
+      </c>
+      <c r="M117" t="s">
+        <v>20</v>
+      </c>
+      <c r="N117" t="s">
+        <v>20</v>
+      </c>
+      <c r="O117" t="s">
+        <v>20</v>
+      </c>
+      <c r="P117" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>20</v>
+      </c>
+      <c r="R117" t="s">
+        <v>418</v>
+      </c>
+      <c r="S117" t="s">
+        <v>20</v>
+      </c>
+      <c r="T117" t="s">
+        <v>20</v>
+      </c>
+      <c r="U117" t="s">
+        <v>20</v>
+      </c>
+      <c r="V117" t="s">
+        <v>21</v>
+      </c>
+      <c r="W117" t="s">
+        <v>20</v>
+      </c>
+      <c r="X117" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE117" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF117" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG117" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>485</v>
+      </c>
+      <c r="B118" t="s">
+        <v>422</v>
+      </c>
+      <c r="C118">
+        <v>45</v>
+      </c>
+      <c r="D118" t="s">
+        <v>27</v>
+      </c>
+      <c r="E118" t="s">
+        <v>20</v>
+      </c>
+      <c r="F118" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" t="s">
+        <v>20</v>
+      </c>
+      <c r="J118" t="s">
+        <v>20</v>
+      </c>
+      <c r="K118" t="s">
+        <v>20</v>
+      </c>
+      <c r="L118" t="s">
+        <v>20</v>
+      </c>
+      <c r="M118" t="s">
+        <v>21</v>
+      </c>
+      <c r="N118" t="s">
+        <v>20</v>
+      </c>
+      <c r="O118" t="s">
+        <v>20</v>
+      </c>
+      <c r="P118" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>20</v>
+      </c>
+      <c r="R118" t="s">
         <v>421</v>
       </c>
-      <c r="S110" t="s">
-        <v>21</v>
-      </c>
-      <c r="T110" t="s">
-        <v>21</v>
-      </c>
-      <c r="U110" t="s">
-        <v>20</v>
-      </c>
-      <c r="V110" t="s">
-        <v>20</v>
-      </c>
-      <c r="W110" t="s">
-        <v>20</v>
-      </c>
-      <c r="X110" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y110" t="s">
+      <c r="S118" t="s">
+        <v>21</v>
+      </c>
+      <c r="T118" t="s">
+        <v>21</v>
+      </c>
+      <c r="U118" t="s">
+        <v>20</v>
+      </c>
+      <c r="V118" t="s">
+        <v>20</v>
+      </c>
+      <c r="W118" t="s">
+        <v>20</v>
+      </c>
+      <c r="X118" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y118" t="s">
         <v>420</v>
       </c>
-      <c r="Z110" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA110" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB110" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC110" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD110" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE110" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF110" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG110" t="s">
+      <c r="Z118" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE118" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF118" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG118" t="s">
         <v>419</v>
       </c>
     </row>

--- a/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
+++ b/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F41947-E9B4-B746-8158-B80D32E7862E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24318B1-E63B-D84F-9414-6B0186DA6182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="12200" xr2:uid="{75954437-E4AF-7C43-AD2A-639C66837574}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4154" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4249" uniqueCount="493">
   <si>
     <t>Study_ID</t>
   </si>
@@ -1479,6 +1479,39 @@
   </si>
   <si>
     <t>"self-inflicted injury which is associated with personality disorder."</t>
+  </si>
+  <si>
+    <t>507-001</t>
+  </si>
+  <si>
+    <t>"mentally retarded"</t>
+  </si>
+  <si>
+    <t>"three half dollar coins and two quarters"</t>
+  </si>
+  <si>
+    <t>"schizophrenic"</t>
+  </si>
+  <si>
+    <t>507-002</t>
+  </si>
+  <si>
+    <t>"disposable cigarette lighter"</t>
+  </si>
+  <si>
+    <t>"We present a case of a patient who ingested 648 metallic objects that formed an intertwining mass within the stomach, requiring operative removal. Of interest was the absence of symptoms and complications after 11 years of continual ingestion. To our knowledge, this is the second heaviest accumulation of metallic foreign objects removed from the stomach of a living patient."</t>
+  </si>
+  <si>
+    <t>532-001</t>
+  </si>
+  <si>
+    <t>"dense adhesions with fibrin deposition in the right upper quadrant and a 500 mL, foul-smelling subcapsular hematoma on the anterosuperior surface of the right lobe", "intrahepatic abscess and an unidentified foreign body. At second laparotomy, a gastrohepatic fistula from the lesser curve of the stomach to the left hepatic lobe was divided and oversewn"</t>
+  </si>
+  <si>
+    <t>"part of a clothespin, a piece of a leather belt and two pieces of plastic", "clothespin"</t>
+  </si>
+  <si>
+    <t>"schizophernic"</t>
   </si>
 </sst>
 </file>
@@ -2348,11 +2381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF37846A-8CBF-AA40-A2E7-D02F4D03EEE3}">
-  <dimension ref="A1:AI131"/>
+  <dimension ref="A1:AI134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J125" sqref="J125:J129"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13898,7 +13931,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>475</v>
       </c>
@@ -14002,7 +14035,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>476</v>
       </c>
@@ -14106,7 +14139,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>482</v>
       </c>
@@ -14210,7 +14243,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>483</v>
       </c>
@@ -14314,7 +14347,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>484</v>
       </c>
@@ -14418,7 +14451,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>485</v>
       </c>
@@ -14522,7 +14555,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>495</v>
       </c>
@@ -14620,7 +14653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>498</v>
       </c>
@@ -14718,7 +14751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>499</v>
       </c>
@@ -14818,8 +14851,11 @@
       <c r="AH121" t="s">
         <v>449</v>
       </c>
+      <c r="AI121" t="s">
+        <v>488</v>
+      </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>504</v>
       </c>
@@ -14920,7 +14956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>504</v>
       </c>
@@ -15024,7 +15060,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>504</v>
       </c>
@@ -15128,7 +15164,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>504</v>
       </c>
@@ -15232,7 +15268,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>504</v>
       </c>
@@ -15333,7 +15369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>504</v>
       </c>
@@ -15434,7 +15470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>504</v>
       </c>
@@ -15842,6 +15878,312 @@
       </c>
       <c r="AH131" t="s">
         <v>476</v>
+      </c>
+    </row>
+    <row r="132" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>507</v>
+      </c>
+      <c r="B132" t="s">
+        <v>482</v>
+      </c>
+      <c r="C132">
+        <v>43</v>
+      </c>
+      <c r="D132" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" t="s">
+        <v>21</v>
+      </c>
+      <c r="F132" t="s">
+        <v>20</v>
+      </c>
+      <c r="G132" t="s">
+        <v>21</v>
+      </c>
+      <c r="H132" t="s">
+        <v>19</v>
+      </c>
+      <c r="I132" t="s">
+        <v>19</v>
+      </c>
+      <c r="J132" t="s">
+        <v>21</v>
+      </c>
+      <c r="K132" t="s">
+        <v>21</v>
+      </c>
+      <c r="L132" t="s">
+        <v>19</v>
+      </c>
+      <c r="M132" t="s">
+        <v>19</v>
+      </c>
+      <c r="N132" t="s">
+        <v>19</v>
+      </c>
+      <c r="O132" t="s">
+        <v>19</v>
+      </c>
+      <c r="P132" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>21</v>
+      </c>
+      <c r="R132" t="s">
+        <v>19</v>
+      </c>
+      <c r="S132" t="s">
+        <v>483</v>
+      </c>
+      <c r="T132" t="s">
+        <v>20</v>
+      </c>
+      <c r="U132" t="s">
+        <v>20</v>
+      </c>
+      <c r="V132" t="s">
+        <v>20</v>
+      </c>
+      <c r="W132" t="s">
+        <v>21</v>
+      </c>
+      <c r="X132" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y132" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z132" t="s">
+        <v>484</v>
+      </c>
+      <c r="AA132" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB132" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC132" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD132" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE132" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF132" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG132" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>507</v>
+      </c>
+      <c r="B133" t="s">
+        <v>486</v>
+      </c>
+      <c r="C133">
+        <v>56</v>
+      </c>
+      <c r="D133" t="s">
+        <v>27</v>
+      </c>
+      <c r="E133" t="s">
+        <v>21</v>
+      </c>
+      <c r="F133" t="s">
+        <v>20</v>
+      </c>
+      <c r="G133" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" t="s">
+        <v>19</v>
+      </c>
+      <c r="I133" t="s">
+        <v>19</v>
+      </c>
+      <c r="J133" t="s">
+        <v>21</v>
+      </c>
+      <c r="K133" t="s">
+        <v>20</v>
+      </c>
+      <c r="L133" t="s">
+        <v>19</v>
+      </c>
+      <c r="M133" t="s">
+        <v>19</v>
+      </c>
+      <c r="N133" t="s">
+        <v>19</v>
+      </c>
+      <c r="O133" t="s">
+        <v>19</v>
+      </c>
+      <c r="P133" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>21</v>
+      </c>
+      <c r="R133" t="s">
+        <v>20</v>
+      </c>
+      <c r="S133" t="s">
+        <v>485</v>
+      </c>
+      <c r="T133" t="s">
+        <v>20</v>
+      </c>
+      <c r="U133" t="s">
+        <v>20</v>
+      </c>
+      <c r="V133" t="s">
+        <v>21</v>
+      </c>
+      <c r="W133" t="s">
+        <v>21</v>
+      </c>
+      <c r="X133" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y133" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z133" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA133" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB133" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC133" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD133" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE133" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF133" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG133" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>532</v>
+      </c>
+      <c r="B134" t="s">
+        <v>489</v>
+      </c>
+      <c r="C134">
+        <v>33</v>
+      </c>
+      <c r="D134" t="s">
+        <v>27</v>
+      </c>
+      <c r="E134" t="s">
+        <v>21</v>
+      </c>
+      <c r="F134" t="s">
+        <v>20</v>
+      </c>
+      <c r="G134" t="s">
+        <v>20</v>
+      </c>
+      <c r="H134" t="s">
+        <v>19</v>
+      </c>
+      <c r="I134" t="s">
+        <v>19</v>
+      </c>
+      <c r="J134" t="s">
+        <v>21</v>
+      </c>
+      <c r="K134" t="s">
+        <v>20</v>
+      </c>
+      <c r="L134" t="s">
+        <v>19</v>
+      </c>
+      <c r="M134" t="s">
+        <v>19</v>
+      </c>
+      <c r="N134" t="s">
+        <v>19</v>
+      </c>
+      <c r="O134" t="s">
+        <v>19</v>
+      </c>
+      <c r="P134" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>21</v>
+      </c>
+      <c r="R134" t="s">
+        <v>20</v>
+      </c>
+      <c r="S134" t="s">
+        <v>492</v>
+      </c>
+      <c r="T134" t="s">
+        <v>20</v>
+      </c>
+      <c r="U134" t="s">
+        <v>20</v>
+      </c>
+      <c r="V134" t="s">
+        <v>19</v>
+      </c>
+      <c r="W134" t="s">
+        <v>19</v>
+      </c>
+      <c r="X134" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y134" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z134" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA134" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB134" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC134" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD134" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE134" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF134" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG134" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH134" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
+++ b/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F056775E-FA88-2E41-9CBD-60A62E9D61A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE7BD9B-F56A-054E-9FEA-5830DC8714D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="12200" xr2:uid="{75954437-E4AF-7C43-AD2A-639C66837574}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5230" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5563" uniqueCount="628">
   <si>
     <t>Study_ID</t>
   </si>
@@ -1859,6 +1859,75 @@
   </si>
   <si>
     <t>"The metallic objects were passed out per rectum over a period of time."</t>
+  </si>
+  <si>
+    <t>583-001</t>
+  </si>
+  <si>
+    <t>583-002</t>
+  </si>
+  <si>
+    <t>583-003</t>
+  </si>
+  <si>
+    <t>583-004</t>
+  </si>
+  <si>
+    <t>583-005</t>
+  </si>
+  <si>
+    <t>583-006</t>
+  </si>
+  <si>
+    <t>583-007</t>
+  </si>
+  <si>
+    <t>583-008</t>
+  </si>
+  <si>
+    <t>583-009</t>
+  </si>
+  <si>
+    <t>583-010</t>
+  </si>
+  <si>
+    <t>583-011</t>
+  </si>
+  <si>
+    <t>"Laparotomy: Resection of terminal ileum and Right hemicolectomy", "Complete SBO"</t>
+  </si>
+  <si>
+    <t>"SBO", "Laparotomy: enterotomy"</t>
+  </si>
+  <si>
+    <t>"3 Razors in SB"</t>
+  </si>
+  <si>
+    <t>"1 Razor in SB"</t>
+  </si>
+  <si>
+    <t>"20p coin in RIF, SBO"</t>
+  </si>
+  <si>
+    <t>"Razor in RUQ"</t>
+  </si>
+  <si>
+    <t>"3 Batteries in SB"</t>
+  </si>
+  <si>
+    <t>"5 Razors in SB, 1 in rectum"</t>
+  </si>
+  <si>
+    <t>"2 Razors in SB and rectum"</t>
+  </si>
+  <si>
+    <t>"6 Batteries in SB, SBO"</t>
+  </si>
+  <si>
+    <t>"2 Batteries in SB, SBO"</t>
+  </si>
+  <si>
+    <t>"Watch in RIF"</t>
   </si>
 </sst>
 </file>
@@ -2355,12 +2424,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -2737,11 +2807,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF37846A-8CBF-AA40-A2E7-D02F4D03EEE3}">
-  <dimension ref="A1:AI166"/>
+  <dimension ref="A1:AI176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B166" sqref="B166"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K166" sqref="J166:K176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17023,7 +17093,7 @@
       <c r="Y139" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Z139" s="3" t="s">
+      <c r="Z139" s="4" t="s">
         <v>510</v>
       </c>
       <c r="AA139" s="2" t="s">
@@ -17127,7 +17197,7 @@
       <c r="Y140" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Z140" s="3" t="s">
+      <c r="Z140" s="4" t="s">
         <v>511</v>
       </c>
       <c r="AA140" s="2" t="s">
@@ -19735,8 +19805,1090 @@
       </c>
     </row>
     <row r="166" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A166">
+      <c r="A166" s="2">
         <v>583</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C166" s="2">
+        <v>29</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q166" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X166" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y166" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z166" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="AA166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG166" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>584</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C167" s="2">
+        <v>23</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M167" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N167" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O167" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P167" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q167" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X167" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z167" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="AA167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF167" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG167" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>585</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C168" s="2">
+        <v>31</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M168" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N168" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O168" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P168" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q168" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W168" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z168" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA168" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB168" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD168" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF168" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG168" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH168" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="169" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>586</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C169" s="2">
+        <v>25</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M169" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N169" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O169" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P169" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q169" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X169" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z169" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG169" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>587</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C170" s="2">
+        <v>26</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q170" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X170" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z170" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="AA170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG170" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>588</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C171" s="2">
+        <v>21</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L171" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M171" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N171" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O171" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P171" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q171" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z171" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="AA171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG171" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>589</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C172" s="2">
+        <v>23</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q172" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X172" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y172" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z172" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="AA172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG172" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>590</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C173" s="2">
+        <v>24</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K173" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L173" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M173" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N173" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O173" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P173" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q173" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V173" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X173" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y173" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z173" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG173" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <v>591</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C174" s="2">
+        <v>37</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q174" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W174" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y174" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z174" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="AA174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB174" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD174" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF174" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH174" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="175" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <v>592</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C175" s="2">
+        <v>22</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K175" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L175" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M175" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N175" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O175" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P175" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q175" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W175" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y175" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z175" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="AA175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB175" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD175" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF175" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH175" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="176" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>593</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C176" s="2">
+        <v>48</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K176" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M176" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N176" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O176" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P176" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q176" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W176" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z176" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA176" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG176" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
+++ b/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE7BD9B-F56A-054E-9FEA-5830DC8714D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BBA842-ECCB-1F4E-85E2-84D7FB06447B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="12200" xr2:uid="{75954437-E4AF-7C43-AD2A-639C66837574}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5563" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5942" uniqueCount="671">
   <si>
     <t>Study_ID</t>
   </si>
@@ -1928,6 +1928,135 @@
   </si>
   <si>
     <t>"Watch in RIF"</t>
+  </si>
+  <si>
+    <t>586-001</t>
+  </si>
+  <si>
+    <t>"Psychiatric opinion was taken, patient was diagnosed to have depressive disorder and a possibality of pica was considered and was started on antidepressive drugs."</t>
+  </si>
+  <si>
+    <t>"53 pieces of glass bangles which were ranging from 3–7 cm with sharp edges. These accounted for total of around 18 complete bangles"</t>
+  </si>
+  <si>
+    <t>"mucosal injury"</t>
+  </si>
+  <si>
+    <t>"11 1.5-cm magnetic toy bars and 7 ball bearings"</t>
+  </si>
+  <si>
+    <t>589-001</t>
+  </si>
+  <si>
+    <t>"This patient had no history of psychiatric disorder, and he and his parents were counseled regarding the dangers of magnet ingestion."</t>
+  </si>
+  <si>
+    <t>"volvulus of the small bowel and four jejunal enterotomies caused by pressure necrosis of attaching magnets (Figure 2)"</t>
+  </si>
+  <si>
+    <t>"nails, copper wires, stones, plastic rosary beads and the remains of partially digested food (389 objects)"</t>
+  </si>
+  <si>
+    <t>"possible pica", "long-term epilepsy and schizophrenia. He had an abdominal celiotomy two years earlier for removal of foreign metal contents in the stomach"</t>
+  </si>
+  <si>
+    <t>592-001</t>
+  </si>
+  <si>
+    <t>593-001</t>
+  </si>
+  <si>
+    <t>"severe developmental delay"</t>
+  </si>
+  <si>
+    <t>"magnet with two ball bearings"</t>
+  </si>
+  <si>
+    <t>"colic fistula with the central bar of the magnet crossing the fistula and two ball bearings on each side in dumb-bell configuration ."</t>
+  </si>
+  <si>
+    <t>594-001</t>
+  </si>
+  <si>
+    <t>"in order to “treat” his pulmonary TB. He said “I have TB and I have metal in me. My stomach asks me to put metal in it to cure my TB. They make me eat metal, they put metal in me”. According to his mother, he behaviour had been odd since the death of his father, with whom he was very close, a few months previously.", "Psychiatric consultation was sought and he was found to have chronic psychosis–persistent delusional disorder."</t>
+  </si>
+  <si>
+    <t>"A gastrostomy was performed and several instruments, blades, batteries and even gold jewellery"</t>
+  </si>
+  <si>
+    <t>"benign gastric ulcer"</t>
+  </si>
+  <si>
+    <t>597-001</t>
+  </si>
+  <si>
+    <t>"admitted to ingesting _x0001_ 10 magnetic toys 3 days prior"</t>
+  </si>
+  <si>
+    <t>"obstruction, necrosis, fistula, and peritonitis from perforation"</t>
+  </si>
+  <si>
+    <t>"Attention deficit disorder may have contributed to this patient’s decision to ingest the magnets."</t>
+  </si>
+  <si>
+    <t>598-001</t>
+  </si>
+  <si>
+    <t>"history of schizophrenia", "in a suicide attempt"</t>
+  </si>
+  <si>
+    <t>"An abscess cavity was located and drained of approximately 100 cc of foul-smelling pus.", "Several loculated fluid collections with pus were identified, and deep in the pelvis a 6-cm nail was located and removed"</t>
+  </si>
+  <si>
+    <t>"2 nails", "6-cm nail"</t>
+  </si>
+  <si>
+    <t>"20 small, mostly sharp objects (Figure 1), such as nails and spirals, and a suede leather glove with a diameter of about 15cm"</t>
+  </si>
+  <si>
+    <t>"intellectual disability", "explained his outbursts of compulsive behavior as a way to cope with stressful situations and to stop circulating thoughts", "The psychiatrist and health workers who provided care to the patient at his home partly agreed with this interpretation, but also saw a strong malingering character in his actions."</t>
+  </si>
+  <si>
+    <t>602-001</t>
+  </si>
+  <si>
+    <t>"schizophrenia"</t>
+  </si>
+  <si>
+    <t>604-001</t>
+  </si>
+  <si>
+    <t>"nails, copper wires, blade, screws, rubber bands, coins and the remains of partially digested food (measuring about half kilograms) were removed"</t>
+  </si>
+  <si>
+    <t>610-001</t>
+  </si>
+  <si>
+    <t>"pocket knife"</t>
+  </si>
+  <si>
+    <t>"3 screws and 1 blade"</t>
+  </si>
+  <si>
+    <t>"lodged in stomach"</t>
+  </si>
+  <si>
+    <t>"The patient had been feeling depressed and had run out of his medications (duloxetine hydrochloride [Cymbalta, Lilly] and haloperidol) prior to the foreign body ingestion. His psychiatric history included major depression, borderline personality disorder, and bipolar disorder.", "background of chronic ingestion since age 13"</t>
+  </si>
+  <si>
+    <t>"patient had multiple psychiatric disorders, including borderline personality disorder, bipolar disorder, bulimia nervosa, post-traumatic stress disorder, and pica"</t>
+  </si>
+  <si>
+    <t>"His psychiatric history included major depression, borderline personality disorder, and bipolar disorder.", ""background of chronic ingestion since age 13"", "2007, the patient has undergone 9 upper endoscopies and 2 colonoscopies at our institution as well as many more procedures at other hospitals. The patient has swallowed forks, bolts, screws, blades, steak knife blades, and pocketknives. He has also undergone multiple laparotomies for the management of foreign body ingestion since 13 years of age."</t>
+  </si>
+  <si>
+    <t>"ballpoint pen in the distal esophagus, with the pointed end lodged proximally at 35 cm from the incisors"</t>
+  </si>
+  <si>
+    <t>610-002</t>
+  </si>
+  <si>
+    <t>610-003</t>
   </si>
 </sst>
 </file>
@@ -2807,11 +2936,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF37846A-8CBF-AA40-A2E7-D02F4D03EEE3}">
-  <dimension ref="A1:AI176"/>
+  <dimension ref="A1:AI188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K166" sqref="J166:K176"/>
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J185" sqref="J185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20891,6 +21020,1239 @@
         <v>20</v>
       </c>
     </row>
+    <row r="177" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <v>586</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C177" s="2">
+        <v>20</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L177" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M177" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O177" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S177" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="T177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V177" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W177" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X177" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y177" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z177" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="AA177" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB177" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD177" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG177" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH177" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="178" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>589</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C178" s="2">
+        <v>6</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M178" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N178" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O178" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P178" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q178" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S178" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="T178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U178" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y178" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z178" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="AA178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB178" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD178" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE178" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF178" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH178" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="179" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <v>592</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C179" s="2">
+        <v>34</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L179" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q179" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S179" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="T179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X179" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y179" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z179" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB179" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF179" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG179" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>593</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C180" s="2">
+        <v>11</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S180" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="T180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z180" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH180" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="181" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
+        <v>594</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C181" s="2">
+        <v>22</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O181" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S181" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="T181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V181" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X181" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y181" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z181" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="AA181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB181" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD181" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF181" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG181" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH181" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="182" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>597</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C182" s="2">
+        <v>11</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q182" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S182" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="T182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U182" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y182" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z182" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB182" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD182" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE182" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG182" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH182" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="183" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>598</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C183" s="2">
+        <v>38</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M183" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S183" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="T183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V183" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X183" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y183" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z183" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="AA183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB183" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD183" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG183" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH183" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="184" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>602</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C184" s="2">
+        <v>41</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K184" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L184" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O184" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S184" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="T184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V184" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W184" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X184" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y184" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z184" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="AA184" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG184" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>604</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C185" s="2">
+        <v>17</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L185" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M185" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N185" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O185" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P185" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S185" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="T185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z185" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="AA185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG185" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>610</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C186" s="2">
+        <v>22</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L186" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M186" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O186" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S186" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="T186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V186" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W186" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X186" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z186" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="AA186" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG186" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <v>610</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C187" s="2">
+        <v>22</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q187" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S187" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="T187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X187" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y187" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z187" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="AA187" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD187" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH187" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="188" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <v>610</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C188" s="2">
+        <v>25</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L188" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O188" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S188" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="T188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V188" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z188" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD188" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF188" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG188" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
+++ b/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BBA842-ECCB-1F4E-85E2-84D7FB06447B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D35ECC8-741A-D545-B917-5C0DB2E1625A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="12200" xr2:uid="{75954437-E4AF-7C43-AD2A-639C66837574}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5942" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6131" uniqueCount="692">
   <si>
     <t>Study_ID</t>
   </si>
@@ -2057,6 +2057,69 @@
   </si>
   <si>
     <t>610-003</t>
+  </si>
+  <si>
+    <t>"ten razor blades after coating them with chewing gum"</t>
+  </si>
+  <si>
+    <t>"history of psychiatric disorder that was treated with thorazine and lithium, but was not taking any of her medications", "denied any intentions to hurt herself"</t>
+  </si>
+  <si>
+    <t>"Eventually, all razor blades were passed"</t>
+  </si>
+  <si>
+    <t>617-001</t>
+  </si>
+  <si>
+    <t>620-001</t>
+  </si>
+  <si>
+    <t>"psychiatric history of compulsive foreign body ingestions resulting in multiple upper endoscopies and retrievals"</t>
+  </si>
+  <si>
+    <t>"butter knife"</t>
+  </si>
+  <si>
+    <t>"Maniac Depressive Psychosis who had a history of ingesting Nails and screws of sizes varying from 2 cm to 15 cm for more than 1 year without causing any perforation and other acute complication"</t>
+  </si>
+  <si>
+    <t>621-001</t>
+  </si>
+  <si>
+    <t>"27 metal nails and screws of sizes 6 cm to 15 cm and bent in various shapes were removed from inside the stomach."</t>
+  </si>
+  <si>
+    <t>622-001</t>
+  </si>
+  <si>
+    <t>"26 coins, one ferrous ring and one cylindrical plastic object were retrieved"</t>
+  </si>
+  <si>
+    <t>"suicide attempt due to intolerable pain induced by a fracture she suffered 3 mo previously. She was bedridden and had a depressed mood, which caused her to attempt suicide"</t>
+  </si>
+  <si>
+    <t>623-001</t>
+  </si>
+  <si>
+    <t>"known psychiatric illness", "ingesting sewing needles by wrapping it on a plant leaf out of a schizophrenic disorder"</t>
+  </si>
+  <si>
+    <t>"ingesting sewing needles by wrapping it on a plant leaf out of a schizophrenic disorder", "8cm long"</t>
+  </si>
+  <si>
+    <t>"perforation peritonitis", "needle in liver", "needle in ballder"</t>
+  </si>
+  <si>
+    <t>625-001</t>
+  </si>
+  <si>
+    <t>"medical history of borderline personality disorder, atypical schizo-affective disorder, a long history of self-mutilating behavior and numerous suicide attempts"</t>
+  </si>
+  <si>
+    <t>"10 razor blades wrapped in paper and chewing gum"</t>
+  </si>
+  <si>
+    <t>"she passed the razor blades transanally without further event"</t>
   </si>
 </sst>
 </file>
@@ -2936,11 +2999,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF37846A-8CBF-AA40-A2E7-D02F4D03EEE3}">
-  <dimension ref="A1:AI188"/>
+  <dimension ref="A1:AI194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J185" sqref="J185"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R194" sqref="R194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22253,6 +22316,621 @@
         <v>20</v>
       </c>
     </row>
+    <row r="189" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>617</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C189" s="2">
+        <v>29</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J189" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L189" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N189" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O189" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S189" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="T189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X189" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y189" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z189" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="AA189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH189" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="190" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>620</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C190" s="2">
+        <v>32</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J190" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K190" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L190" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q190" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R190" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S190" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="T190" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U190" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V190" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W190" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X190" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y190" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z190" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="AA190" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB190" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC190" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD190" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE190" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF190" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG190" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <v>621</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C191" s="2">
+        <v>24</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J191" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L191" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M191" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N191" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O191" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P191" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q191" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S191" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="T191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V191" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W191" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X191" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y191" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z191" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB191" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG191" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>622</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C192" s="2">
+        <v>100</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M192" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O192" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P192" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S192" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="T192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y192" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z192" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="AA192" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG192" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
+        <v>623</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C193" s="2">
+        <v>26</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J193" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L193" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M193" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N193" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O193" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P193" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S193" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="T193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V193" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W193" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X193" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y193" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z193" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="AA193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB193" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD193" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE193" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG193" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH193" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="194" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
+        <v>625</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C194" s="2">
+        <v>30</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L194" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q194" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S194" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="T194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V194" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W194" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X194" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y194" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z194" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="AA194" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG194" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH194" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
+++ b/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D35ECC8-741A-D545-B917-5C0DB2E1625A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C092833-0099-6441-A13F-68FA29195EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="12200" xr2:uid="{75954437-E4AF-7C43-AD2A-639C66837574}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6131" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6319" uniqueCount="713">
   <si>
     <t>Study_ID</t>
   </si>
@@ -2120,6 +2120,69 @@
   </si>
   <si>
     <t>"she passed the razor blades transanally without further event"</t>
+  </si>
+  <si>
+    <t>"she under the influence of black magic (?) developed a psychic illness and ingested a knife"</t>
+  </si>
+  <si>
+    <t>"There were omental adhesions all over the abdominal cavity extending up to pelvis. Duodenum, liver and hepatic flexure of the colon were densely adhered with each other, forming a sort of cocoon. Hub of the knife could be palpated at the cocooned site in the region of hepatic flexure.", "During adhenolysis there was a rent in the duodenum just at the hub of the knife"</t>
+  </si>
+  <si>
+    <t>626-001</t>
+  </si>
+  <si>
+    <t>"17.78cm knife", "in situ 7 years"</t>
+  </si>
+  <si>
+    <t>637-001</t>
+  </si>
+  <si>
+    <t>"In the context of schizophrenia, the development of pica has various potential causes: • Long standing malnutrition related to an underlying chronic psychotic illness • Psychotropic induced compulsive eating behavior of inedible substances[4] • Hematopoietic suppression resulting from a. Chronic psychotic illness b. Chronic use of psychotropics. • A feature of disorganized behavior. Pica is believed to be an obsessive‑compulsi"</t>
+  </si>
+  <si>
+    <t>"she was eating clay and pieces of brick for approximately 2 months prior to hospitalization"</t>
+  </si>
+  <si>
+    <t>Background of paranoid schizophrenia, "been swallowing metallic items “out of boredom” for the previous 12 months."</t>
+  </si>
+  <si>
+    <t>640-001</t>
+  </si>
+  <si>
+    <t>"50 metal objects"</t>
+  </si>
+  <si>
+    <t>"the patient’s swallowing of the lighters was associated with impulsive behavior due to mental retardation"</t>
+  </si>
+  <si>
+    <t>643-001</t>
+  </si>
+  <si>
+    <t>"12 lighters"</t>
+  </si>
+  <si>
+    <t>"10-year-old male with autism"</t>
+  </si>
+  <si>
+    <t>"31 spherical magnets"</t>
+  </si>
+  <si>
+    <t>"Three areas of full thickness erosions were noted as well as two areas of partial erosion, but no segments of bowel required resection"</t>
+  </si>
+  <si>
+    <t>644-001</t>
+  </si>
+  <si>
+    <t>651-001</t>
+  </si>
+  <si>
+    <t>"15 plastic spoons"</t>
+  </si>
+  <si>
+    <t>"inmate with a history of schizophrenia"</t>
+  </si>
+  <si>
+    <t>"ulceration"</t>
   </si>
 </sst>
 </file>
@@ -2999,11 +3062,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF37846A-8CBF-AA40-A2E7-D02F4D03EEE3}">
-  <dimension ref="A1:AI194"/>
+  <dimension ref="A1:AI200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R194" sqref="R194"/>
+      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF200" sqref="AF200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22931,6 +22994,618 @@
         <v>691</v>
       </c>
     </row>
+    <row r="195" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A195" s="2">
+        <v>626</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C195" s="2">
+        <v>32</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O195" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S195" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="T195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V195" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W195" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X195" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z195" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA195" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB195" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD195" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE195" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG195" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH195" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="196" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A196" s="2">
+        <v>637</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C196" s="2">
+        <v>22</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O196" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S196" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="T196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y196" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z196" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG196" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
+        <v>640</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C197" s="2">
+        <v>24</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O197" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P197" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S197" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="T197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V197" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W197" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X197" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y197" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z197" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="AA197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB197" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD197" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE197" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG197" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
+        <v>643</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C198" s="2">
+        <v>21</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J198" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K198" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O198" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S198" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="T198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V198" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W198" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y198" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z198" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="AA198" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB198" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD198" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE198" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF198" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG198" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
+        <v>644</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C199" s="2">
+        <v>10</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K199" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L199" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q199" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S199" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="T199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U199" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y199" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z199" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA199" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB199" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD199" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE199" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH199" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="200" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A200" s="2">
+        <v>651</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C200" s="2">
+        <v>34</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K200" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q200" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S200" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="T200" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U200" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V200" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W200" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X200" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y200" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z200" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="AA200" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB200" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC200" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD200" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE200" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF200" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG200" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH200" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
+++ b/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C092833-0099-6441-A13F-68FA29195EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C32E9F-AB8E-4841-A78E-42280D95CF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="12200" xr2:uid="{75954437-E4AF-7C43-AD2A-639C66837574}"/>
+    <workbookView xWindow="20580" yWindow="880" windowWidth="20560" windowHeight="12200" xr2:uid="{75954437-E4AF-7C43-AD2A-639C66837574}"/>
   </bookViews>
   <sheets>
     <sheet name="case_report_data_extraction" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6319" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6535" uniqueCount="738">
   <si>
     <t>Study_ID</t>
   </si>
@@ -2183,6 +2183,81 @@
   </si>
   <si>
     <t>"ulceration"</t>
+  </si>
+  <si>
+    <t>"complex psycho-social issues"</t>
+  </si>
+  <si>
+    <t>"mobile phone"</t>
+  </si>
+  <si>
+    <t>652-001</t>
+  </si>
+  <si>
+    <t>"The patient claimed that he swallowed a toothbrush about a year ago in an attempt to commit suicide"</t>
+  </si>
+  <si>
+    <t>"17 cm in length (toothbrush)"</t>
+  </si>
+  <si>
+    <t>654-001</t>
+  </si>
+  <si>
+    <t>"Duodenostomy (Malecot Drain</t>
+  </si>
+  <si>
+    <t>"238 screws and nails"</t>
+  </si>
+  <si>
+    <t>658-001</t>
+  </si>
+  <si>
+    <t>"Suicide Attempt", "interlectual disability"</t>
+  </si>
+  <si>
+    <t>"lower gastrointestinal bleeding, which was evident in the form of melena"</t>
+  </si>
+  <si>
+    <t>"On the autopsy, 64 bolts and metal fittings (3700 grams) were found in the esophagus, stomach, small intestine, and large intestine of the patient"</t>
+  </si>
+  <si>
+    <t>661-001</t>
+  </si>
+  <si>
+    <t>"In our case, the patient had a history of amphetamine abuse, and acuphagia might have occurred due to hallucinations caused by amphetamine.", "The cause of death was confirmed as peritonitis caused by duodenal perforation"</t>
+  </si>
+  <si>
+    <t>"In our case, the patient had a history of amphetamine abuse, and acuphagia might have occurred due to hallucinations caused by amphetamine.", "pica", "He had no history of psychological problems or psychotic behaviors and beliefs"</t>
+  </si>
+  <si>
+    <t>"small bowel obstruction", "small number of adhesions to the omentum and small bowl were noted"</t>
+  </si>
+  <si>
+    <t>"plastic shopping bag"</t>
+  </si>
+  <si>
+    <t>667-001</t>
+  </si>
+  <si>
+    <t>"dementia", "She was unaware of how the sheet of plastic was ingested"</t>
+  </si>
+  <si>
+    <t>"73 nails"</t>
+  </si>
+  <si>
+    <t>675-001</t>
+  </si>
+  <si>
+    <t>"patient was noted to have some bizarre behaviors indicating poor judgment and low intellectual ability. Additionally, he was believed to have a regular follow-up in a psychiatric institute a couple of years back; however, he was not on any regular medication at the moment of presentation. Moreover, the family reported a history of substance abuse.", "Psychiatric consultation was sought during the patient’s hospital course. He was started on atypical antipsychotic medication (olanzapine), to which he responded very well. Eventually, he was referred to a specialized psychiatric institute."</t>
+  </si>
+  <si>
+    <t>"He swallowed metallic nails in an attempt to kill himself"</t>
+  </si>
+  <si>
+    <t>"sixty curved and straight nails, needle and wires"</t>
+  </si>
+  <si>
+    <t>680-001</t>
   </si>
 </sst>
 </file>
@@ -3062,11 +3137,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF37846A-8CBF-AA40-A2E7-D02F4D03EEE3}">
-  <dimension ref="A1:AI200"/>
+  <dimension ref="A1:AI207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF200" sqref="AF200"/>
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23557,6 +23632,9 @@
       <c r="Q200" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="R200" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="S200" s="2" t="s">
         <v>711</v>
       </c>
@@ -23604,6 +23682,707 @@
       </c>
       <c r="AH200" s="2" t="s">
         <v>712</v>
+      </c>
+    </row>
+    <row r="201" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
+        <v>652</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C201" s="2">
+        <v>29</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K201" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q201" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R201" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S201" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="T201" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U201" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V201" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W201" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X201" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y201" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z201" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="AA201" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB201" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC201" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD201" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE201" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF201" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG201" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A202" s="2">
+        <v>654</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C202" s="2">
+        <v>21</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M202" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S202" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="T202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V202" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W202" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z202" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB202" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD202" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE202" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG202" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH202" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="203" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A203" s="2">
+        <v>658</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C203" s="2">
+        <v>44</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K203" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L203" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M203" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S203" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="T203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V203" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W203" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X203" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y203" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z203" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA203" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB203" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD203" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG203" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH203" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="204" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A204" s="2">
+        <v>661</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C204" s="2">
+        <v>44</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L204" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O204" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R204" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S204" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="Z204" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="AA204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC204" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD204" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE204" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH204" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="205" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A205" s="2">
+        <v>667</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C205" s="2">
+        <v>91</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L205" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O205" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S205" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="T205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V205" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W205" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z205" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB205" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD205" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF205" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH205" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="206" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A206" s="2">
+        <v>675</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C206" s="2">
+        <v>29</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M206" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N206" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O206" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P206" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q206" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S206" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="T206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V206" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W206" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X206" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y206" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z206" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="AA206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB206" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD206" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG206" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A207" s="2">
+        <v>680</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C207" s="2">
+        <v>22</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L207" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M207" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S207" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="T207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V207" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W207" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X207" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y207" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z207" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="AA207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB207" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD207" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF207" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG207" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
+++ b/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C32E9F-AB8E-4841-A78E-42280D95CF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CFB553-C555-114A-85C1-5A404E0B63F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20580" yWindow="880" windowWidth="20560" windowHeight="12200" xr2:uid="{75954437-E4AF-7C43-AD2A-639C66837574}"/>
+    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="12220" xr2:uid="{75954437-E4AF-7C43-AD2A-639C66837574}"/>
   </bookViews>
   <sheets>
     <sheet name="case_report_data_extraction" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6535" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6660" uniqueCount="751">
   <si>
     <t>Study_ID</t>
   </si>
@@ -2258,6 +2258,45 @@
   </si>
   <si>
     <t>680-001</t>
+  </si>
+  <si>
+    <t>683-001</t>
+  </si>
+  <si>
+    <t>"hepatic abscess caused by foreign body migration to present initially with a pericardial effusion."</t>
+  </si>
+  <si>
+    <t>"12cm pen"</t>
+  </si>
+  <si>
+    <t>"Schizoaffective disorder, hepatitis C, previous substance use disorder, hypertension, and type 2 diabetes"</t>
+  </si>
+  <si>
+    <t>684-001</t>
+  </si>
+  <si>
+    <t>"biting and chewing coconut fibre based and plastic fibre based doormat at home for several months and hence a diagnosis of gastric bezoars due to doormat ingestion was made and patient was taken up for surgery after deworming"</t>
+  </si>
+  <si>
+    <t>"doormat"</t>
+  </si>
+  <si>
+    <t>"120 foreign objects, such as keys, nails, iron bars, needles, nail clippers, blades, and ear spoons, were successfully removed from the patient’s stomach"</t>
+  </si>
+  <si>
+    <t>"When questioned about the reason for swallowing a foreign object, the patient was unable to recall doing so. This unconscious eating behavior, thought to be a direct manifestation of schizophrenia when the patient is stimulated by their external environment."</t>
+  </si>
+  <si>
+    <t>686-001</t>
+  </si>
+  <si>
+    <t>692-001</t>
+  </si>
+  <si>
+    <t>"reason for phone ingestion was to avoid detection and losing the phone to the prison authorities while being detained in prison"</t>
+  </si>
+  <si>
+    <t>"cell phone (with the battery in-situ) in two plastic bags before swallowing.", "71.8 mm x 23.5 mm x13.0 mm and weighed about 20 grams"</t>
   </si>
 </sst>
 </file>
@@ -3137,11 +3176,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF37846A-8CBF-AA40-A2E7-D02F4D03EEE3}">
-  <dimension ref="A1:AI207"/>
+  <dimension ref="A1:AI211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A208" sqref="A208"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A212" sqref="A212:XFD212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24385,6 +24424,413 @@
         <v>20</v>
       </c>
     </row>
+    <row r="208" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A208" s="2">
+        <v>683</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C208" s="2">
+        <v>59</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J208" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L208" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q208" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S208" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="T208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V208" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W208" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X208" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z208" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="AA208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB208" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD208" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE208" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG208" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH208" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="209" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A209" s="2">
+        <v>684</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C209" s="2">
+        <v>12</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J209" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M209" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N209" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O209" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P209" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q209" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S209" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="T209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y209" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z209" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="AA209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB209" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD209" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG209" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A210" s="2">
+        <v>686</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C210" s="2">
+        <v>39</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L210" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O210" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S210" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="T210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V210" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W210" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X210" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y210" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z210" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="AA210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB210" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD210" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG210" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A211" s="2">
+        <v>692</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C211" s="2">
+        <v>30</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P211" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S211" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="T211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V211" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W211" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z211" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="AA211" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG211" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
+++ b/input/raw_data/data_extraction/case_report_data_extraction_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2C08E3-8DDE-EE4D-95AB-5BAAC834CA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0640475E-71D9-1B45-9E72-550D5F7F6856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24440" xr2:uid="{75954437-E4AF-7C43-AD2A-639C66837574}"/>
   </bookViews>
@@ -3201,8 +3201,8 @@
   <dimension ref="A1:AI215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R164" sqref="R164"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD154" sqref="AD154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11476,25 +11476,25 @@
         <v>422</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E81" t="s">
         <v>21</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J81" t="s">
         <v>19</v>
@@ -13087,7 +13087,7 @@
         <v>19</v>
       </c>
       <c r="AE96" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF96" t="s">
         <v>19</v>
@@ -13396,7 +13396,7 @@
         <v>21</v>
       </c>
       <c r="AE99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF99" t="s">
         <v>19</v>
@@ -13500,7 +13500,7 @@
         <v>21</v>
       </c>
       <c r="AE100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF100" t="s">
         <v>19</v>
@@ -19062,7 +19062,7 @@
         <v>20</v>
       </c>
       <c r="AF154" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG154" t="s">
         <v>21</v>
